--- a/idées/Référencement/isaumon_adwords.xlsx
+++ b/idées/Référencement/isaumon_adwords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21180" windowHeight="9855" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21180" windowHeight="9855" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -14,10 +14,11 @@
     <sheet name="Index" sheetId="8" r:id="rId5"/>
     <sheet name="Recettes" sheetId="3" r:id="rId6"/>
     <sheet name="A propos" sheetId="7" r:id="rId7"/>
-    <sheet name="Contact" sheetId="9" r:id="rId8"/>
+    <sheet name="Contact" sheetId="10" r:id="rId8"/>
     <sheet name="Plan" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Contact!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">h!$A$1:$H$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'h1'!$A$1:$H$305</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6140" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6428" uniqueCount="1237">
   <si>
     <t>Ad Group</t>
   </si>
@@ -3801,6 +3802,213 @@
       </rPr>
       <t xml:space="preserve"> avec toutes ses couleurs</t>
     </r>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Prendre contact</t>
+  </si>
+  <si>
+    <t>Avertir</t>
+  </si>
+  <si>
+    <t>Écrire</t>
+  </si>
+  <si>
+    <t>Commenter</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Exprimer</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>avec nous</t>
+  </si>
+  <si>
+    <t>Écrivez</t>
+  </si>
+  <si>
+    <t>nous</t>
+  </si>
+  <si>
+    <t>courriel</t>
+  </si>
+  <si>
+    <t>Réagissez</t>
+  </si>
+  <si>
+    <t>Approcher</t>
+  </si>
+  <si>
+    <t>Libeller</t>
+  </si>
+  <si>
+    <t>Clavarder</t>
+  </si>
+  <si>
+    <t>Réagissez nous email</t>
+  </si>
+  <si>
+    <t>Contact avec nous courriel</t>
+  </si>
+  <si>
+    <t>Réagissez nous courriel</t>
+  </si>
+  <si>
+    <t>Réagissez avec nous email</t>
+  </si>
+  <si>
+    <t>Réagissez avec nous courriel</t>
+  </si>
+  <si>
+    <t>Clavarder nous email</t>
+  </si>
+  <si>
+    <t>Clavarder nous courriel</t>
+  </si>
+  <si>
+    <t>Clavarder avec nous email</t>
+  </si>
+  <si>
+    <t>Clavarder avec nous courriel</t>
+  </si>
+  <si>
+    <t>Libeller nous email</t>
+  </si>
+  <si>
+    <t>Libeller nous courriel</t>
+  </si>
+  <si>
+    <t>Libeller avec nous email</t>
+  </si>
+  <si>
+    <t>Libeller avec nous courriel</t>
+  </si>
+  <si>
+    <t>Exprimer nous email</t>
+  </si>
+  <si>
+    <t>Exprimer nous courriel</t>
+  </si>
+  <si>
+    <t>Exprimer avec nous email</t>
+  </si>
+  <si>
+    <t>Exprimer avec nous courriel</t>
+  </si>
+  <si>
+    <t>Commentaires nous email</t>
+  </si>
+  <si>
+    <t>Commentaires nous courriel</t>
+  </si>
+  <si>
+    <t>Commentaires avec nous email</t>
+  </si>
+  <si>
+    <t>Commentaires avec nous courriel</t>
+  </si>
+  <si>
+    <t>Commenter nous email</t>
+  </si>
+  <si>
+    <t>Commenter nous courriel</t>
+  </si>
+  <si>
+    <t>Commenter avec nous email</t>
+  </si>
+  <si>
+    <t>Commenter avec nous courriel</t>
+  </si>
+  <si>
+    <t>Écrire nous email</t>
+  </si>
+  <si>
+    <t>Écrire nous courriel</t>
+  </si>
+  <si>
+    <t>Écrire avec nous email</t>
+  </si>
+  <si>
+    <t>Écrire avec nous courriel</t>
+  </si>
+  <si>
+    <t>Écrivez nous email</t>
+  </si>
+  <si>
+    <t>Écrivez nous courriel</t>
+  </si>
+  <si>
+    <t>Écrivez avec nous email</t>
+  </si>
+  <si>
+    <t>Écrivez avec nous courriel</t>
+  </si>
+  <si>
+    <t>Avertir nous email</t>
+  </si>
+  <si>
+    <t>Avertir nous courriel</t>
+  </si>
+  <si>
+    <t>Avertir avec nous email</t>
+  </si>
+  <si>
+    <t>Avertir avec nous courriel</t>
+  </si>
+  <si>
+    <t>Approcher nous email</t>
+  </si>
+  <si>
+    <t>Approcher nous courriel</t>
+  </si>
+  <si>
+    <t>Approcher avec nous email</t>
+  </si>
+  <si>
+    <t>Approcher avec nous courriel</t>
+  </si>
+  <si>
+    <t>Prendre contact nous email</t>
+  </si>
+  <si>
+    <t>Prendre contact nous courriel</t>
+  </si>
+  <si>
+    <t>Prendre contact avec nous email</t>
+  </si>
+  <si>
+    <t>Prendre contact avec nous courriel</t>
+  </si>
+  <si>
+    <t>Communication nous email</t>
+  </si>
+  <si>
+    <t>Communication nous courriel</t>
+  </si>
+  <si>
+    <t>Communication avec nous email</t>
+  </si>
+  <si>
+    <t>Communication avec nous courriel</t>
+  </si>
+  <si>
+    <t>Contact nous email</t>
+  </si>
+  <si>
+    <t>Contact nous courriel</t>
+  </si>
+  <si>
+    <t>Contact avec nous email</t>
+  </si>
+  <si>
+    <t>Gardez</t>
   </si>
 </sst>
 </file>
@@ -3979,7 +4187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4186,6 +4394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4934,7 +5148,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -5032,6 +5246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -33585,12 +33800,1453 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="71">
+        <v>7480000</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="71">
+        <v>301000</v>
+      </c>
+      <c r="F3" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="51">
+        <v>1.95</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="71">
+        <v>201000</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="71">
+        <v>22200</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="71">
+        <v>22200</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="71">
+        <v>9900</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="51">
+        <v>1.58</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="71">
+        <v>5400</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="71">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="71">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1900</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="71">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="71">
+        <v>880</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="71">
+        <v>880</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="71">
+        <v>720</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="71">
+        <v>590</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="51">
+        <v>0.91</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="71">
+        <v>170</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="71">
+        <v>140</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="51">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="51" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="51">
+        <v>0</v>
+      </c>
+      <c r="F19" s="51">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H71">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33602,8 +35258,8 @@
   </sheetPr>
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
